--- a/SlimLine/AirLP-docs/AirLP-BOM.xlsx
+++ b/SlimLine/AirLP-docs/AirLP-BOM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\Projects\Altium-Projects\trunk\SlimLine\AirLP-docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA3E0528-E207-460B-B523-5EF43DE691A6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDCAE424-B0DC-4967-89AA-3B4B3C040053}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="5" xr2:uid="{5B4E41CD-2C05-421D-A5E0-D5E8D8DF1686}"/>
+    <workbookView xWindow="1430" yWindow="580" windowWidth="24270" windowHeight="20120" activeTab="5" xr2:uid="{5B4E41CD-2C05-421D-A5E0-D5E8D8DF1686}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="120">
   <si>
     <t>AirLP</t>
   </si>
@@ -384,6 +384,18 @@
   </si>
   <si>
     <t>148-90-471</t>
+  </si>
+  <si>
+    <t>Farnell</t>
+  </si>
+  <si>
+    <t>2133445</t>
+  </si>
+  <si>
+    <t>WiFi antenna</t>
+  </si>
+  <si>
+    <t>ANT-24G-S21-P5FL</t>
   </si>
 </sst>
 </file>
@@ -448,11 +460,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -841,7 +854,7 @@
   <dimension ref="A1:C43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="A51" sqref="A51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1334,7 +1347,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1422,7 +1435,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1494,10 +1507,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F1F6A25-C2D8-414D-AC0C-CAB3F214FA5D}">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1560,6 +1573,22 @@
         <v>114</v>
       </c>
     </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>118</v>
+      </c>
+      <c r="B12" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>116</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>117</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
